--- a/EnsureEconomicStability.xlsx
+++ b/EnsureEconomicStability.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/akunerth/Dropbox (University of Oregon)/Rapid Response Research (R3)/Question Bank/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/akunerth/Dropbox (University of Oregon)/Rapid Response Research (R3)/Data Management R3/EE_R3 Question Bank/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{649B12B3-E889-7242-BA25-13D601F8EC8D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A1A7F30-0FC8-C34B-93CF-0B28B3D38452}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8480" yWindow="460" windowWidth="19860" windowHeight="15540" xr2:uid="{8A673D2B-23AC-4849-B85E-D6BED00A64B1}"/>
   </bookViews>
@@ -25,12 +25,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="35">
   <si>
     <t>Question</t>
-  </si>
-  <si>
-    <t>Domain</t>
   </si>
   <si>
     <t>Question Source</t>
@@ -43,9 +40,6 @@
 • Weekly [text entry] 
 • Monthly – [text entry] 
 • Yearly – [text entry]  </t>
-  </si>
-  <si>
-    <t>Ensure Economic Stability</t>
   </si>
   <si>
     <t>Current</t>
@@ -340,14 +334,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -663,21 +654,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2689D1A7-E07D-A54D-BF8D-68ACF4A3D5C5}">
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="75" customWidth="1"/>
-    <col min="2" max="2" width="27.6640625" customWidth="1"/>
-    <col min="3" max="3" width="21" customWidth="1"/>
-    <col min="4" max="4" width="21.5" customWidth="1"/>
+    <col min="2" max="2" width="21" customWidth="1"/>
+    <col min="3" max="3" width="21.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -687,356 +677,266 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:3" ht="102">
+      <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="102">
-      <c r="A2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="34">
+      <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1" t="s">
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="85">
+      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="34">
-      <c r="A3" s="2" t="s">
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="102">
+      <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="85">
-      <c r="A4" s="2" t="s">
+      <c r="B5" s="1"/>
+      <c r="C5" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="187">
+      <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="102">
-      <c r="A5" s="2" t="s">
+      <c r="B6" s="1"/>
+      <c r="C6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="187">
-      <c r="A6" s="2" t="s">
+    </row>
+    <row r="7" spans="1:3" ht="85">
+      <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1" t="s">
+      <c r="B7" s="1"/>
+      <c r="C7" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="119">
+      <c r="A8" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" ht="85">
-      <c r="A7" s="2" t="s">
+      <c r="B8" s="1"/>
+      <c r="C8" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="187">
+      <c r="A9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="119">
-      <c r="A8" s="2" t="s">
+      <c r="B9" s="1"/>
+      <c r="C9" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="68">
+      <c r="A10" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="187">
-      <c r="A9" s="2" t="s">
+      <c r="B10" s="1"/>
+      <c r="C10" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="69" customHeight="1">
+      <c r="A11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="68">
-      <c r="A10" s="2" t="s">
+      <c r="B11" s="1"/>
+      <c r="C11" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="136">
+      <c r="A12" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="69" customHeight="1">
-      <c r="A11" s="2" t="s">
+      <c r="B12" s="1"/>
+      <c r="C12" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="136">
+      <c r="A13" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="136">
-      <c r="A12" s="2" t="s">
+      <c r="B13" s="1"/>
+      <c r="C13" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="68">
+      <c r="A14" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="136">
-      <c r="A13" s="2" t="s">
+      <c r="B14" s="1"/>
+      <c r="C14" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="85">
+      <c r="A15" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="68">
-      <c r="A14" s="2" t="s">
+      <c r="B15" s="1"/>
+      <c r="C15" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="136">
+      <c r="A16" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="85">
-      <c r="A15" s="2" t="s">
+      <c r="B16" s="1"/>
+      <c r="C16" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="136">
+      <c r="A17" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="136">
-      <c r="A16" s="2" t="s">
+      <c r="B17" s="1"/>
+      <c r="C17" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="187">
+      <c r="A18" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="136">
-      <c r="A17" s="2" t="s">
+      <c r="B18" s="1"/>
+      <c r="C18" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="204">
+      <c r="A19" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="187">
-      <c r="A18" s="2" t="s">
+      <c r="B19" s="1"/>
+      <c r="C19" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="204">
-      <c r="A19" s="2" t="s">
+    </row>
+    <row r="20" spans="1:3" ht="255">
+      <c r="A20" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B19" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1" t="s">
+      <c r="B20" s="1"/>
+      <c r="C20" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="102">
+      <c r="A21" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" ht="255">
-      <c r="A20" s="2" t="s">
+      <c r="B21" s="1"/>
+      <c r="C21" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="85">
+      <c r="A22" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="102">
-      <c r="A21" s="2" t="s">
+      <c r="B22" s="1"/>
+      <c r="C22" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="102">
+      <c r="A23" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="85">
-      <c r="A22" s="2" t="s">
+      <c r="B23" s="1"/>
+      <c r="C23" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="119">
+      <c r="A24" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="102">
-      <c r="A23" s="2" t="s">
+      <c r="B24" s="1"/>
+      <c r="C24" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="85">
+      <c r="A25" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="119">
-      <c r="A24" s="2" t="s">
+      <c r="B25" s="1"/>
+      <c r="C25" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="85">
+      <c r="A26" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="85">
-      <c r="A25" s="2" t="s">
+      <c r="B26" s="1"/>
+      <c r="C26" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="68">
+      <c r="A27" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B25" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="85">
-      <c r="A26" s="2" t="s">
+      <c r="B27" s="1"/>
+      <c r="C27" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="204">
+      <c r="A28" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="68">
-      <c r="A27" s="2" t="s">
+      <c r="B28" s="1"/>
+      <c r="C28" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="85">
+      <c r="A29" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="204">
-      <c r="A28" s="2" t="s">
+      <c r="B29" s="1"/>
+      <c r="C29" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="221">
+      <c r="A30" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B28" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="85">
-      <c r="A29" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="221">
-      <c r="A30" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1" t="s">
-        <v>6</v>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/EnsureEconomicStability.xlsx
+++ b/EnsureEconomicStability.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/akunerth/Dropbox (University of Oregon)/Rapid Response Research (R3)/Data Management R3/EE_R3 Question Bank/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A1A7F30-0FC8-C34B-93CF-0B28B3D38452}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEABD2E8-E21F-A74B-BBC8-037ADBD9EDE7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8480" yWindow="460" windowWidth="19860" windowHeight="15540" xr2:uid="{8A673D2B-23AC-4849-B85E-D6BED00A64B1}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16700" xr2:uid="{8A673D2B-23AC-4849-B85E-D6BED00A64B1}"/>
   </bookViews>
   <sheets>
     <sheet name="Question Bank " sheetId="1" r:id="rId1"/>
@@ -30,12 +30,6 @@
     <t>Question</t>
   </si>
   <si>
-    <t>Question Source</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Current/Past </t>
-  </si>
-  <si>
     <t xml:space="preserve">To the best of your knowledge, which option best describes your gross (before taxes) household income from all sources, in 2019 (prior to the coronavirus (COVID-19) Pandemic)? 
 • Weekly [text entry] 
 • Monthly – [text entry] 
@@ -292,6 +286,12 @@
 • Other, please describe: 
 • I don’t know 
 • Not applicable </t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>Occurrence</t>
   </si>
 </sst>
 </file>
@@ -657,7 +657,7 @@
   <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -672,271 +672,271 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="102">
       <c r="A2" s="2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="34">
       <c r="A3" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="85">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="102">
       <c r="A5" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="187">
       <c r="A6" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="85">
       <c r="A7" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="119">
       <c r="A8" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="187">
       <c r="A9" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="68">
       <c r="A10" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="69" customHeight="1">
       <c r="A11" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="136">
       <c r="A12" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="136">
       <c r="A13" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="68">
       <c r="A14" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="85">
       <c r="A15" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="136">
       <c r="A16" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="136">
       <c r="A17" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="187">
       <c r="A18" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="204">
       <c r="A19" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="255">
       <c r="A20" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="102">
       <c r="A21" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="85">
       <c r="A22" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="102">
       <c r="A23" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="119">
       <c r="A24" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="85">
       <c r="A25" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="85">
       <c r="A26" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="68">
       <c r="A27" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B27" s="1"/>
       <c r="C27" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="204">
       <c r="A28" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="85">
       <c r="A29" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="221">
       <c r="A30" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
